--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_5_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_5_.xlsx
@@ -423,342 +423,342 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2.559113817574455</v>
+        <v>2.561171122214548</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.01991824245714876</v>
+        <v>-0.0002517101720076429</v>
       </c>
       <c r="C1" t="n">
-        <v>1.376998141715527</v>
+        <v>1.400073368420803</v>
       </c>
       <c r="D1" t="n">
-        <v>0.2137159718378223</v>
+        <v>0.1709741328928501</v>
       </c>
       <c r="E1" t="n">
-        <v>1.570796349608518</v>
+        <v>1.570796365408233</v>
       </c>
       <c r="F1" t="n">
-        <v>0.9883174477740231</v>
+        <v>0.9903747278261085</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.553796223303799</v>
+        <v>2.555848965682979</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0194636208881087</v>
+        <v>0.0001803432818697641</v>
       </c>
       <c r="C2" t="n">
-        <v>1.375433641789394</v>
+        <v>1.398460229945526</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2148258516401591</v>
+        <v>0.1721552197852622</v>
       </c>
       <c r="E2" t="n">
-        <v>1.570796349492636</v>
+        <v>1.570796365220714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9829998535986678</v>
+        <v>0.9850525714503057</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.520633272964105</v>
+        <v>2.522657562997278</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.01662839282254759</v>
+        <v>0.002874826257770738</v>
       </c>
       <c r="C3" t="n">
-        <v>1.365676704588836</v>
+        <v>1.388399960503409</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2217475697883528</v>
+        <v>0.1795210179199698</v>
       </c>
       <c r="E3" t="n">
-        <v>1.570796348769937</v>
+        <v>1.570796364051259</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9498369038533092</v>
+        <v>0.9518611697360345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.442204472857007</v>
+        <v>2.444161474445256</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.009923213309439939</v>
+        <v>0.00924715032858687</v>
       </c>
       <c r="C4" t="n">
-        <v>1.342602012213107</v>
+        <v>1.364607901804851</v>
       </c>
       <c r="D4" t="n">
-        <v>0.238117103966757</v>
+        <v>0.1969407801431379</v>
       </c>
       <c r="E4" t="n">
-        <v>1.570796347060791</v>
+        <v>1.570796361285554</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8714081051517878</v>
+        <v>0.873365083481396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.310965514687938</v>
+        <v>2.312809919049192</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001296909559138665</v>
+        <v>0.01991028901013736</v>
       </c>
       <c r="C5" t="n">
-        <v>1.303989938799677</v>
+        <v>1.324795422307113</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2655090901804068</v>
+        <v>0.2260901671361768</v>
       </c>
       <c r="E5" t="n">
-        <v>1.570796344200787</v>
+        <v>1.570796356657557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7401691493347429</v>
+        <v>0.7420135319296621</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.127602244665496</v>
+        <v>2.129289331443423</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0169733401551951</v>
+        <v>0.03480851743734772</v>
       </c>
       <c r="C6" t="n">
-        <v>1.250042268517868</v>
+        <v>1.269170579423171</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3037803797015718</v>
+        <v>0.2668168461098673</v>
       </c>
       <c r="E6" t="n">
-        <v>1.570796340204873</v>
+        <v>1.570796350191454</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5568058825984801</v>
+        <v>0.558492949695081</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.899384632600809</v>
+        <v>1.900875918751935</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03648454082200218</v>
+        <v>0.05335115204042857</v>
       </c>
       <c r="C7" t="n">
-        <v>1.18289791356248</v>
+        <v>1.199938781730575</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3514135960163092</v>
+        <v>0.3175060894984869</v>
       </c>
       <c r="E7" t="n">
-        <v>1.570796335231478</v>
+        <v>1.570796342143612</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3285882746238378</v>
+        <v>0.3300795436886814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.638520741006903</v>
+        <v>1.639788217465948</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05878679738128223</v>
+        <v>0.07454629022105426</v>
       </c>
       <c r="C8" t="n">
-        <v>1.106148632147423</v>
+        <v>1.120803451180303</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4058606917710165</v>
+        <v>0.3754463736539357</v>
       </c>
       <c r="E8" t="n">
-        <v>1.570796329546644</v>
+        <v>1.570796332944535</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06772438770505351</v>
+        <v>0.06899185004407737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.360510694198072</v>
+        <v>1.361539650321506</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08255494464039051</v>
+        <v>0.09713455002854179</v>
       </c>
       <c r="C9" t="n">
-        <v>1.024354746499346</v>
+        <v>1.036466685305622</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4638865057189854</v>
+        <v>0.437194977539862</v>
       </c>
       <c r="E9" t="n">
-        <v>1.570796323488156</v>
+        <v>1.570796323140818</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.210285654121368</v>
+        <v>-0.2092567089567264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.082500647389242</v>
+        <v>1.083291083177064</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1063230918994988</v>
+        <v>0.1197228098360293</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9425608608512694</v>
+        <v>0.9521299194309416</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5219123196669542</v>
+        <v>0.4989435814257883</v>
       </c>
       <c r="E10" t="n">
-        <v>1.570796317429667</v>
+        <v>1.570796313337101</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4882956959477893</v>
+        <v>-0.4875052679575304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8216367557953357</v>
+        <v>0.8222033818910772</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1286253484587788</v>
+        <v>0.140917948016655</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8658115794362121</v>
+        <v>0.8729945888806701</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5763594154216616</v>
+        <v>0.5568838655812371</v>
       </c>
       <c r="E11" t="n">
-        <v>1.570796311744834</v>
+        <v>1.570796304138024</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7491595828665731</v>
+        <v>-0.748592961602134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5934191437306482</v>
+        <v>0.5937899691995894</v>
       </c>
       <c r="B12" t="n">
-        <v>0.148136549125586</v>
+        <v>0.1594605826197359</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7986672244808241</v>
+        <v>0.8037627911880737</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6239926317363989</v>
+        <v>0.6075731089698566</v>
       </c>
       <c r="E12" t="n">
-        <v>1.570796306771439</v>
+        <v>1.570796296090182</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9773771908412165</v>
+        <v>-0.977006367608534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4100558737082065</v>
+        <v>0.410269381593821</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1638129797216424</v>
+        <v>0.1743588110469463</v>
       </c>
       <c r="C13" t="n">
-        <v>0.744719554199015</v>
+        <v>0.7481379483041316</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6622639212575638</v>
+        <v>0.6482997879435473</v>
       </c>
       <c r="E13" t="n">
-        <v>1.570796302775525</v>
+        <v>1.570796289624078</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.160740457577478</v>
+        <v>-1.160526949843115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2788169155391391</v>
+        <v>0.2789178261977563</v>
       </c>
       <c r="B14" t="n">
-        <v>0.175033102590221</v>
+        <v>0.1850219497284968</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7061074807855859</v>
+        <v>0.7083254688063935</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6896559074712136</v>
+        <v>0.6774491749365862</v>
       </c>
       <c r="E14" t="n">
-        <v>1.570796299915521</v>
+        <v>1.570796284996081</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.291979413394523</v>
+        <v>-1.291878501394849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2003881154320393</v>
+        <v>0.2004217376457329</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1817382821033287</v>
+        <v>0.1913942737993129</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6830327884098565</v>
+        <v>0.6845334101078362</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7060254416496176</v>
+        <v>0.6948689371597545</v>
       </c>
       <c r="E15" t="n">
-        <v>1.570796298206374</v>
+        <v>1.570796282230376</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.370408212096044</v>
+        <v>-1.370374587649487</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.167225165092344</v>
+        <v>0.1672303349600339</v>
       </c>
       <c r="B16" t="n">
-        <v>0.18457351016889</v>
+        <v>0.194088756775214</v>
       </c>
       <c r="C16" t="n">
-        <v>0.673275851209298</v>
+        <v>0.6744731406657185</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7129471597978114</v>
+        <v>0.7022347352944619</v>
       </c>
       <c r="E16" t="n">
-        <v>1.570796297483676</v>
+        <v>1.570796281060922</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.403571161841407</v>
+        <v>-1.403565989363758</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1619075708216884</v>
+        <v>0.1619081784284635</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1850281317379298</v>
+        <v>0.1945208102290914</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6717113512831652</v>
+        <v>0.6728600021904421</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7140570396001484</v>
+        <v>0.7034158221868742</v>
       </c>
       <c r="E17" t="n">
-        <v>1.570796297367793</v>
+        <v>1.570796280873402</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.408888756016757</v>
+        <v>-1.40888814573956</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_5_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_5_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,341 +423,392 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
         <v>2.561171122214548</v>
       </c>
-      <c r="B1" t="n">
+      <c r="C1" t="n">
         <v>-0.0002517101720076429</v>
       </c>
-      <c r="C1" t="n">
+      <c r="D1" t="n">
         <v>1.400073368420803</v>
       </c>
-      <c r="D1" t="n">
+      <c r="E1" t="n">
         <v>0.1709741328928501</v>
       </c>
-      <c r="E1" t="n">
+      <c r="F1" t="n">
         <v>1.570796365408233</v>
       </c>
-      <c r="F1" t="n">
+      <c r="G1" t="n">
         <v>0.9903747278261085</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0.2107455406146856</v>
+      </c>
+      <c r="B2" t="n">
         <v>2.555848965682979</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.0001803432818697641</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1.398460229945526</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.1721552197852622</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.570796365220714</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.9850525714503057</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>0.4214910812293712</v>
+      </c>
+      <c r="B3" t="n">
         <v>2.522657562997278</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.002874826257770738</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1.388399960503409</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.1795210179199698</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.570796364051259</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.9518611697360345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0.6322366218440568</v>
+      </c>
+      <c r="B4" t="n">
         <v>2.444161474445256</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.00924715032858687</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1.364607901804851</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.1969407801431379</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.570796361285554</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.873365083481396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>0.8429821624587425</v>
+      </c>
+      <c r="B5" t="n">
         <v>2.312809919049192</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.01991028901013736</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1.324795422307113</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.2260901671361768</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1.570796356657557</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.7420135319296621</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>1.053727703073428</v>
+      </c>
+      <c r="B6" t="n">
         <v>2.129289331443423</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.03480851743734772</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1.269170579423171</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.2668168461098673</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.570796350191454</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.558492949695081</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>1.264473243688114</v>
+      </c>
+      <c r="B7" t="n">
         <v>1.900875918751935</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.05335115204042857</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1.199938781730575</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.3175060894984869</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1.570796342143612</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.3300795436886814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>1.475218784302799</v>
+      </c>
+      <c r="B8" t="n">
         <v>1.639788217465948</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.07454629022105426</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1.120803451180303</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.3754463736539357</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>1.570796332944535</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.06899185004407737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>1.685964324917485</v>
+      </c>
+      <c r="B9" t="n">
         <v>1.361539650321506</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.09713455002854179</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1.036466685305622</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.437194977539862</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1.570796323140818</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>-0.2092567089567264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>1.896709865532171</v>
+      </c>
+      <c r="B10" t="n">
         <v>1.083291083177064</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1197228098360293</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.9521299194309416</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.4989435814257883</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>1.570796313337101</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-0.4875052679575304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>2.107455406146856</v>
+      </c>
+      <c r="B11" t="n">
         <v>0.8222033818910772</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.140917948016655</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.8729945888806701</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.5568838655812371</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>1.570796304138024</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>-0.748592961602134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>2.318200946761542</v>
+      </c>
+      <c r="B12" t="n">
         <v>0.5937899691995894</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.1594605826197359</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.8037627911880737</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.6075731089698566</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>1.570796296090182</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>-0.977006367608534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>2.528946487376227</v>
+      </c>
+      <c r="B13" t="n">
         <v>0.410269381593821</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.1743588110469463</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.7481379483041316</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.6482997879435473</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.570796289624078</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>-1.160526949843115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>2.739692027990913</v>
+      </c>
+      <c r="B14" t="n">
         <v>0.2789178261977563</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.1850219497284968</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.7083254688063935</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.6774491749365862</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.570796284996081</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>-1.291878501394849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>2.950437568605599</v>
+      </c>
+      <c r="B15" t="n">
         <v>0.2004217376457329</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.1913942737993129</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.6845334101078362</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.6948689371597545</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.570796282230376</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>-1.370374587649487</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>3.161183109220284</v>
+      </c>
+      <c r="B16" t="n">
         <v>0.1672303349600339</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.194088756775214</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.6744731406657185</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.7022347352944619</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.570796281060922</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>-1.403565989363758</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>3.37192864983497</v>
+      </c>
+      <c r="B17" t="n">
         <v>0.1619081784284635</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.1945208102290914</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.6728600021904421</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.7034158221868742</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.570796280873402</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>-1.40888814573956</v>
       </c>
     </row>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_5_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_5_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,390 +426,137 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>2.561171122214548</v>
+        <v>-0.1619081784284657</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.0002517101720076429</v>
+        <v>1.376275516565805</v>
       </c>
       <c r="D1" t="n">
-        <v>1.400073368420803</v>
+        <v>0.672860002190442</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1709741328928501</v>
+        <v>0.7034158221868738</v>
       </c>
       <c r="F1" t="n">
-        <v>1.570796365408233</v>
+        <v>4.592149416282609e-08</v>
       </c>
       <c r="G1" t="n">
-        <v>0.9903747278261085</v>
+        <v>-1.408888145739562</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2107455406146856</v>
+        <v>0.2212251060624558</v>
       </c>
       <c r="B2" t="n">
-        <v>2.555848965682979</v>
+        <v>-0.2074942785077096</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001803432818697641</v>
+        <v>1.37735797105997</v>
       </c>
       <c r="D2" t="n">
-        <v>1.398460229945526</v>
+        <v>0.6758762528771421</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1721552197852622</v>
+        <v>0.7014819866207826</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570796365220714</v>
+        <v>4.000407050064325e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9850525714503057</v>
+        <v>-1.363302046435018</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4214910812293712</v>
+        <v>0.4424502121249115</v>
       </c>
       <c r="B3" t="n">
-        <v>2.522657562997278</v>
+        <v>-0.4117502296915038</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002874826257770738</v>
+        <v>1.382208084843216</v>
       </c>
       <c r="D3" t="n">
-        <v>1.388399960503409</v>
+        <v>0.6893910556777709</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1795210179199698</v>
+        <v>0.6928171211837666</v>
       </c>
       <c r="F3" t="n">
-        <v>1.570796364051259</v>
+        <v>1.349008904583116e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9518611697360345</v>
+        <v>-1.159046098722391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6322366218440568</v>
+        <v>0.6636753181873674</v>
       </c>
       <c r="B4" t="n">
-        <v>2.444161474445256</v>
+        <v>-0.6991189600253006</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00924715032858687</v>
+        <v>1.389031734444553</v>
       </c>
       <c r="D4" t="n">
-        <v>1.364607901804851</v>
+        <v>0.7084051000618862</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1969407801431379</v>
+        <v>0.6806264781953137</v>
       </c>
       <c r="F4" t="n">
-        <v>1.570796361285554</v>
+        <v>-2.381256525296749e-08</v>
       </c>
       <c r="G4" t="n">
-        <v>0.873365083481396</v>
+        <v>-0.8716773732721977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8429821624587425</v>
+        <v>0.8849004242498231</v>
       </c>
       <c r="B5" t="n">
-        <v>2.312809919049192</v>
+        <v>-0.9033749112090953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01991028901013736</v>
+        <v>1.393881848227799</v>
       </c>
       <c r="D5" t="n">
-        <v>1.324795422307113</v>
+        <v>0.7219199028625151</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2260901671361768</v>
+        <v>0.6719616127582977</v>
       </c>
       <c r="F5" t="n">
-        <v>1.570796356657557</v>
+        <v>-5.032654670777958e-08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7420135319296621</v>
+        <v>-0.6674214255595712</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.053727703073428</v>
+        <v>1.106125530312279</v>
       </c>
       <c r="B6" t="n">
-        <v>2.129289331443423</v>
+        <v>-0.9489610112883384</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03480851743734772</v>
+        <v>1.394964302721964</v>
       </c>
       <c r="D6" t="n">
-        <v>1.269170579423171</v>
+        <v>0.7249361535492151</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2668168461098673</v>
+        <v>0.6700277771922065</v>
       </c>
       <c r="F6" t="n">
-        <v>1.570796350191454</v>
+        <v>-5.624397036996243e-08</v>
       </c>
       <c r="G6" t="n">
-        <v>0.558492949695081</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1.264473243688114</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.900875918751935</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05335115204042857</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.199938781730575</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3175060894984869</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.570796342143612</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.3300795436886814</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1.475218784302799</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.639788217465948</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07454629022105426</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.120803451180303</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.3754463736539357</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.570796332944535</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06899185004407737</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1.685964324917485</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.361539650321506</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09713455002854179</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.036466685305622</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.437194977539862</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.570796323140818</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-0.2092567089567264</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1.896709865532171</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.083291083177064</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1197228098360293</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9521299194309416</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.4989435814257883</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.570796313337101</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0.4875052679575304</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2.107455406146856</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.8222033818910772</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.140917948016655</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.8729945888806701</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5568838655812371</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.570796304138024</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.748592961602134</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2.318200946761542</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5937899691995894</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1594605826197359</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.8037627911880737</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6075731089698566</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.570796296090182</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.977006367608534</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2.528946487376227</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.410269381593821</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1743588110469463</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.7481379483041316</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.6482997879435473</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.570796289624078</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-1.160526949843115</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2.739692027990913</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.2789178261977563</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1850219497284968</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7083254688063935</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.6774491749365862</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.570796284996081</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-1.291878501394849</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2.950437568605599</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.2004217376457329</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1913942737993129</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.6845334101078362</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.6948689371597545</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.570796282230376</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-1.370374587649487</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3.161183109220284</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.1672303349600339</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.194088756775214</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.6744731406657185</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.7022347352944619</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.570796281060922</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-1.403565989363758</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>3.37192864983497</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.1619081784284635</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1945208102290914</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.6728600021904421</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.7034158221868742</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.570796280873402</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-1.40888814573956</v>
+        <v>-0.6218353262550274</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_5_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_5_.xlsx
@@ -435,10 +435,10 @@
         <v>0.672860002190442</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7034158221868738</v>
+        <v>0.8673805046080227</v>
       </c>
       <c r="F1" t="n">
-        <v>4.592149416282609e-08</v>
+        <v>-1.570796280873402</v>
       </c>
       <c r="G1" t="n">
         <v>-1.408888145739562</v>
@@ -458,10 +458,10 @@
         <v>0.6758762528771421</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7014819866207826</v>
+        <v>0.8693143401741139</v>
       </c>
       <c r="F2" t="n">
-        <v>4.000407050064325e-08</v>
+        <v>-1.570796286790826</v>
       </c>
       <c r="G2" t="n">
         <v>-1.363302046435018</v>
@@ -481,10 +481,10 @@
         <v>0.6893910556777709</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6928171211837666</v>
+        <v>0.87797920561113</v>
       </c>
       <c r="F3" t="n">
-        <v>1.349008904583116e-08</v>
+        <v>-1.570796313304808</v>
       </c>
       <c r="G3" t="n">
         <v>-1.159046098722391</v>
@@ -504,10 +504,10 @@
         <v>0.7084051000618862</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6806264781953137</v>
+        <v>0.8901698485995828</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.381256525296749e-08</v>
+        <v>-1.570796350607462</v>
       </c>
       <c r="G4" t="n">
         <v>-0.8716773732721977</v>
@@ -527,10 +527,10 @@
         <v>0.7219199028625151</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6719616127582977</v>
+        <v>0.8988347140365989</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.032654670777958e-08</v>
+        <v>-1.570796377121443</v>
       </c>
       <c r="G5" t="n">
         <v>-0.6674214255595712</v>
@@ -550,10 +550,10 @@
         <v>0.7249361535492151</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6700277771922065</v>
+        <v>0.90076854960269</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.624397036996243e-08</v>
+        <v>-1.570796383038867</v>
       </c>
       <c r="G6" t="n">
         <v>-0.6218353262550274</v>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_5_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_5_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.1619081784284657</v>
+        <v>0.1619081784284657</v>
       </c>
       <c r="C1" t="n">
-        <v>1.376275516565805</v>
+        <v>0.1945208102290912</v>
       </c>
       <c r="D1" t="n">
-        <v>0.672860002190442</v>
+        <v>-0.672860002190442</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8673805046080227</v>
+        <v>0.7034158221868738</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796280873402</v>
+        <v>1.570796280873402</v>
       </c>
       <c r="G1" t="n">
         <v>-1.408888145739562</v>
@@ -446,116 +446,369 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2212251060624558</v>
+        <v>0.2073985369335523</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2074942785077096</v>
+        <v>0.1636540555887594</v>
       </c>
       <c r="C2" t="n">
-        <v>1.37735797105997</v>
+        <v>0.1944793538953593</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6758762528771421</v>
+        <v>-0.672975519928842</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8693143401741139</v>
+        <v>0.7033417592742593</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796286790826</v>
+        <v>1.570796281100031</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.363302046435018</v>
+        <v>-1.407142268608938</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4424502121249115</v>
+        <v>0.4147970738671046</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4117502296915038</v>
+        <v>0.1745421441903155</v>
       </c>
       <c r="C3" t="n">
-        <v>1.382208084843216</v>
+        <v>0.1942208132345191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6893910556777709</v>
+        <v>-0.6736959413876683</v>
       </c>
       <c r="E3" t="n">
-        <v>0.87797920561113</v>
+        <v>0.7028798690720303</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796313304808</v>
+        <v>1.570796282513388</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.159046098722391</v>
+        <v>-1.396254180192416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6636753181873674</v>
+        <v>0.6221956108006569</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6991189600253006</v>
+        <v>0.2002919558244658</v>
       </c>
       <c r="C4" t="n">
-        <v>1.389031734444553</v>
+        <v>0.1936093768695125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7084051000618862</v>
+        <v>-0.675399703869848</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8901698485995828</v>
+        <v>0.7017875207142698</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796350607462</v>
+        <v>1.57079628585591</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.8716773732721977</v>
+        <v>-1.370504368995864</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8849004242498231</v>
+        <v>0.8295941477342091</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.9033749112090953</v>
+        <v>0.243380444329976</v>
       </c>
       <c r="C5" t="n">
-        <v>1.393881848227799</v>
+        <v>0.1925862288496451</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7219199028625151</v>
+        <v>-0.6782506975459399</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8988347140365989</v>
+        <v>0.6999596378417227</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796377121443</v>
+        <v>1.570796291449124</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6674214255595712</v>
+        <v>-1.327415881222608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.106125530312279</v>
+        <v>1.036992684667762</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9489610112883384</v>
+        <v>0.3035824320851401</v>
       </c>
       <c r="C6" t="n">
-        <v>1.394964302721964</v>
+        <v>0.1911567160795255</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7249361535492151</v>
+        <v>-0.6822340233095296</v>
       </c>
       <c r="E6" t="n">
-        <v>0.90076854960269</v>
+        <v>0.6974057728506851</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796383038867</v>
+        <v>1.570796299263802</v>
       </c>
       <c r="G6" t="n">
+        <v>-1.267213894490529</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.244391221601314</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3785110362998748</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1893775157480047</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.6871917506326238</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6942271811418936</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.570796308990106</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1.192285291549146</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.451789758534866</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4641580953078138</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1873438027571155</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.6928586754210456</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6905938953694161</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.570796320107748</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1.106638233996711</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.659188295468418</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5554345948584021</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1851764171510118</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.6988980778698286</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6867217996895402</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.570796331956135</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1.015361735997295</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.866586832401971</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6467110944089904</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.183009031544908</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.7049374803186115</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6828497040096643</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.570796343804521</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.9240852379978779</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.073985369335523</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7323581534169294</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1809753185540188</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.7106044051070333</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6792164182371867</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.570796354922163</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.8384381804454427</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2.281383906269075</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8072867576316641</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.179196118222498</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.7155621324301276</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6760378265283953</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.570796364648468</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.7635095775040601</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2.488782443202628</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.867488745386828</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1777666054523784</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.7195454581937172</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6734839615373577</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.570796372463145</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.703307590771981</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2.69618098013618</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9105772338923382</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1767434574325111</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.7223964518698091</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6716560786648106</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.57079637805636</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.6602191029987254</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2.903579517069732</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9363270455264889</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1761320210675044</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.7241002143519887</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6705637303070501</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.570796381398882</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.6344692918021734</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.110978054003284</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9472151341280449</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1758734804066642</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.7248206358108151</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.670101840104821</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.570796382812239</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.6235812033856507</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.318376590936837</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9489610112883384</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1758320240729323</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.7249361535492151</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6700277771922065</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.570796383038867</v>
+      </c>
+      <c r="G17" t="n">
         <v>-0.6218353262550274</v>
       </c>
     </row>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_5_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_5_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,390 +426,459 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.1619081784284657</v>
+        <v>-0.8593953665866616</v>
       </c>
       <c r="C1" t="n">
-        <v>0.1945208102290912</v>
+        <v>0.9361135023763976</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.672860002190442</v>
+        <v>-0.9478716695422087</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7034158221868738</v>
+        <v>0.9019520401756933</v>
       </c>
       <c r="F1" t="n">
-        <v>1.570796280873402</v>
+        <v>-1.314422332361895</v>
       </c>
       <c r="G1" t="n">
-        <v>-1.408888145739562</v>
+        <v>0.2793998977344397</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2073985369335523</v>
+        <v>0.2036183962852948</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1636540555887594</v>
+        <v>-0.8590516156935444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1944793538953593</v>
+        <v>0.9362155519669909</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.672975519928842</v>
+        <v>-0.9442611327855712</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7033417592742593</v>
+        <v>0.901608278516805</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570796281100031</v>
+        <v>-1.310282114100231</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.407142268608938</v>
+        <v>0.2766794500601193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4147970738671046</v>
+        <v>0.4072367925705895</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1745421441903155</v>
+        <v>-0.8568657893149449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1942208132345191</v>
+        <v>0.9368644599160626</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6736959413876683</v>
+        <v>-0.9213026281196038</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7028798690720303</v>
+        <v>0.8994223836813466</v>
       </c>
       <c r="F3" t="n">
-        <v>1.570796282513388</v>
+        <v>-1.283955496567867</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.396254180192416</v>
+        <v>0.2593808003483871</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6221956108006569</v>
+        <v>0.6108551888558843</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2002919558244658</v>
+        <v>-0.8515685581247325</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1936093768695125</v>
+        <v>0.9384370529916396</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.675399703869848</v>
+        <v>-0.8656639423630874</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7017875207142698</v>
+        <v>0.8941249865896647</v>
       </c>
       <c r="F4" t="n">
-        <v>1.57079628585591</v>
+        <v>-1.220154372704323</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.370504368995864</v>
+        <v>0.2174584648423711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8295941477342091</v>
+        <v>0.8144735851411791</v>
       </c>
       <c r="B5" t="n">
-        <v>0.243380444329976</v>
+        <v>-0.8424478593301996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1925862288496451</v>
+        <v>0.9411447218196883</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6782506975459399</v>
+        <v>-0.7698660290972894</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6999596378417227</v>
+        <v>0.8850040021482951</v>
       </c>
       <c r="F5" t="n">
-        <v>1.570796291449124</v>
+        <v>-1.110302487329326</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.327415881222608</v>
+        <v>0.145277172166265</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.036992684667762</v>
+        <v>1.018091981426474</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3035824320851401</v>
+        <v>-0.8292745944676057</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1911567160795255</v>
+        <v>0.9450554790363893</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6822340233095296</v>
+        <v>-0.6315025864309654</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6974057728506851</v>
+        <v>0.8718303247184711</v>
       </c>
       <c r="F6" t="n">
-        <v>1.570796299263802</v>
+        <v>-0.9516405235587904</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.267213894490529</v>
+        <v>0.04102383500785289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.244391221601314</v>
+        <v>1.221710377711769</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3785110362998748</v>
+        <v>-0.8122283271977204</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1893775157480047</v>
+        <v>0.9501160174404119</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6871917506326238</v>
+        <v>-0.452459634765361</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6942271811418936</v>
+        <v>0.8547835235846315</v>
       </c>
       <c r="F7" t="n">
-        <v>1.570796308990106</v>
+        <v>-0.7463311892207845</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.192285291549146</v>
+        <v>-0.09388047819896611</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.451789758534866</v>
+        <v>1.425328773997063</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4641580953078138</v>
+        <v>-0.7918229811013673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1873438027571155</v>
+        <v>0.956173768145189</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6928586754210456</v>
+        <v>-0.2381350945592137</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6905938953694161</v>
+        <v>0.8343775384229287</v>
       </c>
       <c r="F8" t="n">
-        <v>1.570796320107748</v>
+        <v>-0.5005643032715029</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.106638233996711</v>
+        <v>-0.2553685715916537</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.659188295468418</v>
+        <v>1.628947170282358</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5554345948584021</v>
+        <v>-0.7688325374749677</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1851764171510118</v>
+        <v>0.962998958731192</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6988980778698286</v>
+        <v>0.003341635906245588</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6867217996895402</v>
+        <v>0.8113863747697367</v>
       </c>
       <c r="F9" t="n">
-        <v>1.570796331956135</v>
+        <v>-0.2236618822112395</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.015361735997295</v>
+        <v>-0.4373151501965076</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.866586832401971</v>
+        <v>1.832565566567653</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6467110944089904</v>
+        <v>-0.7442167331260836</v>
       </c>
       <c r="C10" t="n">
-        <v>0.183009031544908</v>
+        <v>0.9703066713982051</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7049374803186115</v>
+        <v>0.26189010276229</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6828497040096643</v>
+        <v>0.7867697994901592</v>
       </c>
       <c r="F10" t="n">
-        <v>1.570796343804521</v>
+        <v>0.072816773499641</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.9240852379978779</v>
+        <v>-0.6321248482461366</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.073985369335523</v>
+        <v>2.036183962852948</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7323581534169294</v>
+        <v>-0.7190467581689621</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1809753185540188</v>
+        <v>0.977778901117601</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7106044051070333</v>
+        <v>0.526259218787696</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6792164182371867</v>
+        <v>0.7615990362465379</v>
       </c>
       <c r="F11" t="n">
-        <v>1.570796354922163</v>
+        <v>0.375969993024732</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.8384381804454427</v>
+        <v>-0.8313202574969367</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.281383906269075</v>
+        <v>2.239802359138242</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8072867576316641</v>
+        <v>-0.6944309538200781</v>
       </c>
       <c r="C12" t="n">
-        <v>0.179196118222498</v>
+        <v>0.9850866137846142</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7155621324301276</v>
+        <v>0.7848076856437409</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6760378265283953</v>
+        <v>0.7369824609669604</v>
       </c>
       <c r="F12" t="n">
-        <v>1.570796364648468</v>
+        <v>0.6724486487356127</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.7635095775040601</v>
+        <v>-1.026129955546565</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.488782443202628</v>
+        <v>2.443420755423537</v>
       </c>
       <c r="B13" t="n">
-        <v>0.867488745386828</v>
+        <v>-0.6714405101936785</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1777666054523784</v>
+        <v>0.9919118043706172</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7195454581937172</v>
+        <v>1.0262844161092</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6734839615373577</v>
+        <v>0.7139912973137684</v>
       </c>
       <c r="F13" t="n">
-        <v>1.570796372463145</v>
+        <v>0.949351069795876</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.703307590771981</v>
+        <v>-1.208076534151419</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.69618098013618</v>
+        <v>2.647039151708832</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9105772338923382</v>
+        <v>-0.6510351640973255</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1767434574325111</v>
+        <v>0.9979695550753943</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.7223964518698091</v>
+        <v>1.240608956315347</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6716560786648106</v>
+        <v>0.6935853121520656</v>
       </c>
       <c r="F14" t="n">
-        <v>1.57079637805636</v>
+        <v>1.195117955745158</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.6602191029987254</v>
+        <v>-1.369564627544106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.903579517069732</v>
+        <v>2.850657547994127</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9363270455264889</v>
+        <v>-0.6339888968274401</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1761320210675044</v>
+        <v>1.003030093479417</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.7241002143519887</v>
+        <v>1.419651907980952</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6705637303070501</v>
+        <v>0.6765385110182259</v>
       </c>
       <c r="F15" t="n">
-        <v>1.570796381398882</v>
+        <v>1.400427290083164</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.6344692918021734</v>
+        <v>-1.504468940750926</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.110978054003284</v>
+        <v>3.054275944279421</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9472151341280449</v>
+        <v>-0.620815631964846</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1758734804066642</v>
+        <v>1.006940850696118</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.7248206358108151</v>
+        <v>1.558015350647277</v>
       </c>
       <c r="E16" t="n">
-        <v>0.670101840104821</v>
+        <v>0.6633648335884019</v>
       </c>
       <c r="F16" t="n">
-        <v>1.570796382812239</v>
+        <v>1.559089253853701</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.6235812033856507</v>
+        <v>-1.608722277909338</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.318376590936837</v>
+        <v>3.257894340564716</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9489610112883384</v>
+        <v>-0.6116949331703132</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1758320240729323</v>
+        <v>1.009648519524167</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7249361535492151</v>
+        <v>1.653813263913074</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6700277771922065</v>
+        <v>0.6542438491470323</v>
       </c>
       <c r="F17" t="n">
-        <v>1.570796383038867</v>
+        <v>1.668941139228697</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.6218353262550274</v>
+        <v>-1.680903570585443</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3.461512736850011</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.6063977019801009</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.011221112599744</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.709451949669592</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6489464520553503</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.732742263092242</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1.722825906091459</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3.665131133135306</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.6042118756015018</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.011870020548815</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.732410454335556</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6467605572198921</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.759068880624603</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-1.740124555803188</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3.8687495294206</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.6038681247083844</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.011972070139409</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.736020991092197</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6464167955610038</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.76320909888627</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1.742845003477509</v>
       </c>
     </row>
   </sheetData>
